--- a/BalanceSheet/EPAM_bal.xlsx
+++ b/BalanceSheet/EPAM_bal.xlsx
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>592000.0</v>
+        <v>10000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1203000.0</v>
+        <v>11000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>3040000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-2407000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>159000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>6896000.0</v>
@@ -3604,19 +3604,19 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>-15448000.0</v>
+        <v>-92000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>-7517000.0</v>
+        <v>-90000000.0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>-5317000.0</v>
+        <v>-78000000.0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>8288000.0</v>
+        <v>-79000000.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>-4659000.0</v>
+        <v>-70000000.0</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
